--- a/files/data2.xlsx
+++ b/files/data2.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:H698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -3475,6 +3475,11 @@
       <c r="G90" s="5" t="n">
         <v>35</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Purchases</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="91" s="4">
       <c r="A91" s="1" t="n">
@@ -3504,6 +3509,11 @@
       <c r="G91" s="5" t="n">
         <v>40</v>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="92" s="4">
       <c r="A92" s="1" t="n">
@@ -3533,6 +3543,11 @@
       <c r="G92" s="5" t="n">
         <v>249.08</v>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="93" s="4">
       <c r="A93" s="1" t="n">
@@ -3562,6 +3577,11 @@
       <c r="G93" s="5" t="n">
         <v>-178.12</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="94" s="4">
       <c r="A94" s="1" t="n">
@@ -3591,6 +3611,11 @@
       <c r="G94" s="5" t="n">
         <v>36</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="95" s="4">
       <c r="A95" s="1" t="n">
@@ -3620,6 +3645,11 @@
       <c r="G95" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="96" s="4">
       <c r="A96" s="1" t="n">
@@ -4567,6 +4597,11 @@
       <c r="G123" s="5" t="n">
         <v>-33</v>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="124" s="4">
       <c r="A124" s="1" t="n">
@@ -4596,6 +4631,11 @@
       <c r="G124" s="5" t="n">
         <v>115</v>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="125" s="4">
       <c r="A125" s="1" t="n">
@@ -4625,6 +4665,11 @@
       <c r="G125" s="5" t="n">
         <v>2.15</v>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="126" s="4">
       <c r="A126" s="1" t="n">
@@ -4654,6 +4699,11 @@
       <c r="G126" s="5" t="n">
         <v>35</v>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="127" s="4">
       <c r="A127" s="1" t="n">
@@ -4683,6 +4733,11 @@
       <c r="G127" s="5" t="n">
         <v>4.92</v>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="128" s="4">
       <c r="A128" s="1" t="n">
@@ -4712,6 +4767,11 @@
       <c r="G128" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="129" s="4">
       <c r="A129" s="1" t="n">
@@ -4741,6 +4801,11 @@
       <c r="G129" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="130" s="4">
       <c r="A130" s="1" t="n">
@@ -4770,6 +4835,11 @@
       <c r="G130" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="131" s="4">
       <c r="A131" s="1" t="n">
@@ -4799,6 +4869,11 @@
       <c r="G131" s="5" t="n">
         <v>8.4</v>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="132" s="4">
       <c r="A132" s="1" t="n">
@@ -4828,6 +4903,11 @@
       <c r="G132" s="5" t="n">
         <v>5.83</v>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="133" s="4">
       <c r="A133" s="1" t="n">
@@ -4857,6 +4937,11 @@
       <c r="G133" s="5" t="n">
         <v>1.25</v>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="134" s="4">
       <c r="A134" s="1" t="n">
@@ -4886,6 +4971,11 @@
       <c r="G134" s="5" t="n">
         <v>1.42</v>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="135" s="4">
       <c r="A135" s="1" t="n">
@@ -4915,6 +5005,11 @@
       <c r="G135" s="5" t="n">
         <v>0.8300000000000001</v>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="136" s="4">
       <c r="A136" s="1" t="n">
@@ -4944,6 +5039,11 @@
       <c r="G136" s="5" t="n">
         <v>3.33</v>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="137" s="4">
       <c r="A137" s="1" t="n">
@@ -4973,6 +5073,11 @@
       <c r="G137" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="138" s="4">
       <c r="A138" s="1" t="n">
@@ -5002,6 +5107,11 @@
       <c r="G138" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="139" s="4">
       <c r="A139" s="1" t="n">
@@ -5031,6 +5141,11 @@
       <c r="G139" s="5" t="n">
         <v>4.92</v>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="140" s="4">
       <c r="A140" s="1" t="n">
@@ -5060,6 +5175,11 @@
       <c r="G140" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="141" s="4">
       <c r="A141" s="1" t="n">
@@ -5089,6 +5209,11 @@
       <c r="G141" s="5" t="n">
         <v>1.6</v>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="142" s="4">
       <c r="A142" s="1" t="n">
@@ -5118,6 +5243,11 @@
       <c r="G142" s="5" t="n">
         <v>0.5900000000000001</v>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="143" s="4">
       <c r="A143" s="1" t="n">
@@ -5147,6 +5277,11 @@
       <c r="G143" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="144" s="4">
       <c r="A144" s="1" t="n">
@@ -5176,6 +5311,11 @@
       <c r="G144" s="5" t="n">
         <v>2.98</v>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="145" s="4">
       <c r="A145" s="1" t="n">
@@ -5205,6 +5345,11 @@
       <c r="G145" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="146" s="4">
       <c r="A146" s="1" t="n">
@@ -5234,6 +5379,11 @@
       <c r="G146" s="5" t="n">
         <v>2.41</v>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="147" s="4">
       <c r="A147" s="1" t="n">
@@ -5263,6 +5413,11 @@
       <c r="G147" s="5" t="n">
         <v>4.2</v>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="148" s="4">
       <c r="A148" s="1" t="n">
@@ -5292,6 +5447,11 @@
       <c r="G148" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="149" s="4">
       <c r="A149" s="1" t="n">
@@ -5321,6 +5481,11 @@
       <c r="G149" s="5" t="n">
         <v>17</v>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="150" s="4">
       <c r="A150" s="1" t="n">
@@ -5350,6 +5515,11 @@
       <c r="G150" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="151" s="4">
       <c r="A151" s="1" t="n">
@@ -5379,6 +5549,11 @@
       <c r="G151" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="152" s="4">
       <c r="A152" s="1" t="n">
@@ -5408,6 +5583,11 @@
       <c r="G152" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="153" s="4">
       <c r="A153" s="1" t="n">
@@ -5437,6 +5617,11 @@
       <c r="G153" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="154" s="4">
       <c r="A154" s="1" t="n">
@@ -5466,6 +5651,11 @@
       <c r="G154" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="155" s="4">
       <c r="A155" s="1" t="n">
@@ -5495,6 +5685,11 @@
       <c r="G155" s="5" t="n">
         <v>4.92</v>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="156" s="4">
       <c r="A156" s="1" t="n">
@@ -5524,6 +5719,11 @@
       <c r="G156" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="157" s="4">
       <c r="A157" s="1" t="n">
@@ -5553,6 +5753,11 @@
       <c r="G157" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="158" s="4">
       <c r="A158" s="1" t="n">
@@ -5582,6 +5787,11 @@
       <c r="G158" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="159" s="4">
       <c r="A159" s="1" t="n">
@@ -5611,6 +5821,11 @@
       <c r="G159" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="160" s="4">
       <c r="A160" s="1" t="n">
@@ -5640,6 +5855,11 @@
       <c r="G160" s="5" t="n">
         <v>2.28</v>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="161" s="4">
       <c r="A161" s="1" t="n">
@@ -5669,6 +5889,11 @@
       <c r="G161" s="5" t="n">
         <v>2.7</v>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="162" s="4">
       <c r="A162" s="1" t="n">
@@ -5698,6 +5923,11 @@
       <c r="G162" s="5" t="n">
         <v>3.5</v>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="163" s="4">
       <c r="A163" s="1" t="n">
@@ -5727,6 +5957,11 @@
       <c r="G163" s="5" t="n">
         <v>3.5</v>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="164" s="4">
       <c r="A164" s="1" t="n">
@@ -5756,6 +5991,11 @@
       <c r="G164" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="165" s="4">
       <c r="A165" s="1" t="n">
@@ -5785,6 +6025,11 @@
       <c r="G165" s="5" t="n">
         <v>4.5</v>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="166" s="4">
       <c r="A166" s="1" t="n">
@@ -5814,6 +6059,11 @@
       <c r="G166" s="5" t="n">
         <v>4.5</v>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="167" s="4">
       <c r="A167" s="1" t="n">
@@ -5843,6 +6093,11 @@
       <c r="G167" s="5" t="n">
         <v>0.7</v>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="168" s="4">
       <c r="A168" s="1" t="n">
@@ -5872,6 +6127,11 @@
       <c r="G168" s="5" t="n">
         <v>1.45</v>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="169" s="4">
       <c r="A169" s="1" t="n">
@@ -5901,6 +6161,11 @@
       <c r="G169" s="5" t="n">
         <v>4.92</v>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="170" s="4">
       <c r="A170" s="1" t="n">
@@ -5930,6 +6195,11 @@
       <c r="G170" s="5" t="n">
         <v>2.34</v>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="171" s="4">
       <c r="A171" s="1" t="n">
@@ -5959,6 +6229,11 @@
       <c r="G171" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="172" s="4">
       <c r="A172" s="1" t="n">
@@ -5988,6 +6263,11 @@
       <c r="G172" s="5" t="n">
         <v>14.1</v>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="173" s="4">
       <c r="A173" s="1" t="n">
@@ -6017,6 +6297,11 @@
       <c r="G173" s="5" t="n">
         <v>9.99</v>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="174" s="4">
       <c r="A174" s="1" t="n">
@@ -6046,6 +6331,11 @@
       <c r="G174" s="5" t="n">
         <v>5.83</v>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="175" s="4">
       <c r="A175" s="1" t="n">
@@ -6075,6 +6365,11 @@
       <c r="G175" s="5" t="n">
         <v>23.44</v>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="176" s="4">
       <c r="A176" s="1" t="n">
@@ -6104,6 +6399,11 @@
       <c r="G176" s="5" t="n">
         <v>4.17</v>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="177" s="4">
       <c r="A177" s="1" t="n">
@@ -6133,6 +6433,11 @@
       <c r="G177" s="5" t="n">
         <v>3.68</v>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="178" s="4">
       <c r="A178" s="1" t="n">
@@ -6162,6 +6467,11 @@
       <c r="G178" s="5" t="n">
         <v>9.98</v>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="179" s="4">
       <c r="A179" s="1" t="n">
@@ -6191,6 +6501,11 @@
       <c r="G179" s="5" t="n">
         <v>1.6</v>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="180" s="4">
       <c r="A180" s="1" t="n">
@@ -6220,6 +6535,11 @@
       <c r="G180" s="5" t="n">
         <v>1.5</v>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="181" s="4">
       <c r="A181" s="1" t="n">
@@ -6249,6 +6569,11 @@
       <c r="G181" s="5" t="n">
         <v>1.9</v>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="182" s="4">
       <c r="A182" s="1" t="n">
@@ -6278,6 +6603,11 @@
       <c r="G182" s="5" t="n">
         <v>0.8</v>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="183" s="4">
       <c r="A183" s="1" t="n">
@@ -6307,6 +6637,11 @@
       <c r="G183" s="5" t="n">
         <v>1.1</v>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="184" s="4">
       <c r="A184" s="1" t="n">
@@ -6336,6 +6671,11 @@
       <c r="G184" s="5" t="n">
         <v>0.7</v>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="185" s="4">
       <c r="A185" s="1" t="n">
@@ -6365,6 +6705,11 @@
       <c r="G185" s="5" t="n">
         <v>3</v>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="186" s="4">
       <c r="A186" s="1" t="n">
@@ -6394,6 +6739,11 @@
       <c r="G186" s="5" t="n">
         <v>30</v>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="187" s="4">
       <c r="A187" s="1" t="n">
@@ -6423,6 +6773,11 @@
       <c r="G187" s="5" t="n">
         <v>17.5</v>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="188" s="4">
       <c r="A188" s="1" t="n">
@@ -6452,6 +6807,11 @@
       <c r="G188" s="5" t="n">
         <v>2.5</v>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="189" s="4">
       <c r="A189" s="1" t="n">
@@ -6481,6 +6841,11 @@
       <c r="G189" s="5" t="n">
         <v>16.66</v>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="190" s="4">
       <c r="A190" s="1" t="n">
@@ -6510,6 +6875,11 @@
       <c r="G190" s="5" t="n">
         <v>2.1</v>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="191" s="4">
       <c r="A191" s="1" t="n">
@@ -6539,6 +6909,11 @@
       <c r="G191" s="5" t="n">
         <v>2.49</v>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="192" s="4">
       <c r="A192" s="1" t="n">
@@ -6568,6 +6943,11 @@
       <c r="G192" s="5" t="n">
         <v>2.19</v>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="193" s="4">
       <c r="A193" s="1" t="n">
@@ -6597,6 +6977,11 @@
       <c r="G193" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="194" s="4">
       <c r="A194" s="1" t="n">
@@ -6626,6 +7011,11 @@
       <c r="G194" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="195" s="4">
       <c r="A195" s="1" t="n">
@@ -6655,6 +7045,11 @@
       <c r="G195" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="196" s="4">
       <c r="A196" s="1" t="n">
@@ -6684,6 +7079,11 @@
       <c r="G196" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="197" s="4">
       <c r="A197" s="1" t="n">
@@ -6713,6 +7113,11 @@
       <c r="G197" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="198" s="4">
       <c r="A198" s="1" t="n">
@@ -6742,6 +7147,11 @@
       <c r="G198" s="5" t="n">
         <v>17</v>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="199" s="4">
       <c r="A199" s="1" t="n">
@@ -6771,6 +7181,11 @@
       <c r="G199" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="200" s="4">
       <c r="A200" s="1" t="n">
@@ -6800,6 +7215,11 @@
       <c r="G200" s="5" t="n">
         <v>6.5</v>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="201" s="4">
       <c r="A201" s="1" t="n">
@@ -6829,6 +7249,11 @@
       <c r="G201" s="5" t="n">
         <v>83.33</v>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="202" s="4">
       <c r="A202" s="1" t="n">
@@ -6858,6 +7283,11 @@
       <c r="G202" s="5" t="n">
         <v>31.76</v>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="203" s="4">
       <c r="A203" s="1" t="n">
@@ -6887,6 +7317,11 @@
       <c r="G203" s="5" t="n">
         <v>171.14</v>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="204" s="4">
       <c r="A204" s="1" t="n">
@@ -6916,6 +7351,11 @@
       <c r="G204" s="5" t="n">
         <v>20.12</v>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="205" s="4">
       <c r="A205" s="1" t="n">
@@ -6945,6 +7385,11 @@
       <c r="G205" s="5" t="n">
         <v>158.58</v>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="206" s="4">
       <c r="A206" s="1" t="n">
@@ -6974,6 +7419,11 @@
       <c r="G206" s="5" t="n">
         <v>27.77</v>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="207" s="4">
       <c r="A207" s="1" t="n">
@@ -7003,6 +7453,11 @@
       <c r="G207" s="5" t="n">
         <v>150.58</v>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="208" s="4">
       <c r="A208" s="1" t="n">
@@ -7032,6 +7487,11 @@
       <c r="G208" s="5" t="n">
         <v>17.54</v>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="209" s="4">
       <c r="A209" s="1" t="n">
@@ -7061,6 +7521,11 @@
       <c r="G209" s="5" t="n">
         <v>194.81</v>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="210" s="4">
       <c r="A210" s="1" t="n">
@@ -7090,6 +7555,11 @@
       <c r="G210" s="5" t="n">
         <v>1.58</v>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="211" s="4">
       <c r="A211" s="1" t="n">
@@ -7119,6 +7589,11 @@
       <c r="G211" s="5" t="n">
         <v>2.9</v>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="212" s="4">
       <c r="A212" s="1" t="n">
@@ -7148,6 +7623,11 @@
       <c r="G212" s="5" t="n">
         <v>3.4</v>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="213" s="4">
       <c r="A213" s="1" t="n">
@@ -7177,6 +7657,11 @@
       <c r="G213" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="214" s="4">
       <c r="A214" s="1" t="n">
@@ -7206,6 +7691,11 @@
       <c r="G214" s="5" t="n">
         <v>49</v>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="215" s="4">
       <c r="A215" s="1" t="n">
@@ -7235,6 +7725,11 @@
       <c r="G215" s="5" t="n">
         <v>38</v>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="216" s="4">
       <c r="A216" s="1" t="n">
@@ -7264,6 +7759,11 @@
       <c r="G216" s="5" t="n">
         <v>2.9</v>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="217" s="4">
       <c r="A217" s="1" t="n">
@@ -7293,6 +7793,11 @@
       <c r="G217" s="5" t="n">
         <v>1.75</v>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="218" s="4">
       <c r="A218" s="1" t="n">
@@ -7322,6 +7827,11 @@
       <c r="G218" s="5" t="n">
         <v>2.9</v>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="219" s="4">
       <c r="A219" s="1" t="n">
@@ -7351,6 +7861,11 @@
       <c r="G219" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="220" s="4">
       <c r="A220" s="1" t="n">
@@ -7380,6 +7895,11 @@
       <c r="G220" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="221" s="4">
       <c r="A221" s="1" t="n">
@@ -7409,6 +7929,11 @@
       <c r="G221" s="5" t="n">
         <v>14.95</v>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="222" s="4">
       <c r="A222" s="1" t="n">
@@ -7438,6 +7963,11 @@
       <c r="G222" s="5" t="n">
         <v>33.98999999999999</v>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="223" s="4">
       <c r="A223" s="1" t="n">
@@ -7467,6 +7997,11 @@
       <c r="G223" s="5" t="n">
         <v>10.99</v>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="224" s="4">
       <c r="A224" s="1" t="n">
@@ -7496,6 +8031,11 @@
       <c r="G224" s="5" t="n">
         <v>13.98</v>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="225" s="4">
       <c r="A225" s="1" t="n">
@@ -7525,6 +8065,11 @@
       <c r="G225" s="5" t="n">
         <v>8.98</v>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="226" s="4">
       <c r="A226" s="1" t="n">
@@ -7554,6 +8099,11 @@
       <c r="G226" s="5" t="n">
         <v>14.99</v>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="227" s="4">
       <c r="A227" s="1" t="n">
@@ -7583,6 +8133,11 @@
       <c r="G227" s="5" t="n">
         <v>14.99</v>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="228" s="4">
       <c r="A228" s="1" t="n">
@@ -7612,6 +8167,11 @@
       <c r="G228" s="5" t="n">
         <v>0.8</v>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="229" s="4">
       <c r="A229" s="1" t="n">
@@ -7641,6 +8201,11 @@
       <c r="G229" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="230" s="4">
       <c r="A230" s="1" t="n">
@@ -7670,6 +8235,11 @@
       <c r="G230" s="5" t="n">
         <v>4.92</v>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="231" s="4">
       <c r="A231" s="1" t="n">
@@ -7699,6 +8269,11 @@
       <c r="G231" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="232" s="4">
       <c r="A232" s="1" t="n">
@@ -7728,6 +8303,11 @@
       <c r="G232" s="5" t="n">
         <v>9.99</v>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="233" s="4">
       <c r="A233" s="1" t="n">
@@ -7757,6 +8337,11 @@
       <c r="G233" s="5" t="n">
         <v>1.99</v>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="234" s="4">
       <c r="A234" s="1" t="n">
@@ -7786,6 +8371,11 @@
       <c r="G234" s="5" t="n">
         <v>28.99</v>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="235" s="4">
       <c r="A235" s="1" t="n">
@@ -7815,6 +8405,11 @@
       <c r="G235" s="5" t="n">
         <v>7.99</v>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="236" s="4">
       <c r="A236" s="1" t="n">
@@ -7844,6 +8439,11 @@
       <c r="G236" s="5" t="n">
         <v>7.99</v>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="237" s="4">
       <c r="A237" s="1" t="n">
@@ -7873,6 +8473,11 @@
       <c r="G237" s="5" t="n">
         <v>0.89</v>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="238" s="4">
       <c r="A238" s="1" t="n">
@@ -7902,6 +8507,11 @@
       <c r="G238" s="5" t="n">
         <v>17.49</v>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="239" s="4">
       <c r="A239" s="1" t="n">
@@ -7931,6 +8541,11 @@
       <c r="G239" s="5" t="n">
         <v>8.290000000000001</v>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="240" s="4">
       <c r="A240" s="1" t="n">
@@ -7960,6 +8575,11 @@
       <c r="G240" s="5" t="n">
         <v>29.99</v>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="241" s="4">
       <c r="A241" s="1" t="n">
@@ -7989,6 +8609,11 @@
       <c r="G241" s="5" t="n">
         <v>34.98999999999999</v>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="242" s="4">
       <c r="A242" s="1" t="n">
@@ -8018,6 +8643,11 @@
       <c r="G242" s="5" t="n">
         <v>1.98</v>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="243" s="4">
       <c r="A243" s="1" t="n">
@@ -8047,6 +8677,11 @@
       <c r="G243" s="5" t="n">
         <v>15.95</v>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="244" s="4">
       <c r="A244" s="1" t="n">
@@ -8076,6 +8711,11 @@
       <c r="G244" s="5" t="n">
         <v>9.99</v>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="245" s="4">
       <c r="A245" s="1" t="n">
@@ -8105,6 +8745,11 @@
       <c r="G245" s="5" t="n">
         <v>7.99</v>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="246" s="4">
       <c r="A246" s="1" t="n">
@@ -8134,6 +8779,11 @@
       <c r="G246" s="5" t="n">
         <v>8.49</v>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="247" s="4">
       <c r="A247" s="1" t="n">
@@ -8163,6 +8813,11 @@
       <c r="G247" s="5" t="n">
         <v>25.99</v>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="248" s="4">
       <c r="A248" s="1" t="n">
@@ -8192,6 +8847,11 @@
       <c r="G248" s="5" t="n">
         <v>30.34</v>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="249" s="4">
       <c r="A249" s="1" t="n">
@@ -8221,6 +8881,11 @@
       <c r="G249" s="5" t="n">
         <v>1.53</v>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="250" s="4">
       <c r="A250" s="1" t="n">
@@ -8250,6 +8915,11 @@
       <c r="G250" s="5" t="n">
         <v>2.63</v>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="251" s="4">
       <c r="A251" s="1" t="n">
@@ -8279,6 +8949,11 @@
       <c r="G251" s="5" t="n">
         <v>55</v>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="252" s="4">
       <c r="A252" s="1" t="n">
@@ -8308,6 +8983,11 @@
       <c r="G252" s="5" t="n">
         <v>45</v>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="253" s="4">
       <c r="A253" s="1" t="n">
@@ -8337,6 +9017,11 @@
       <c r="G253" s="5" t="n">
         <v>4.99</v>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="254" s="4">
       <c r="A254" s="1" t="n">
@@ -8366,6 +9051,11 @@
       <c r="G254" s="5" t="n">
         <v>3.96</v>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="255" s="4">
       <c r="A255" s="1" t="n">
@@ -8395,6 +9085,11 @@
       <c r="G255" s="5" t="n">
         <v>4.99</v>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="256" s="4">
       <c r="A256" s="1" t="n">
@@ -8424,6 +9119,11 @@
       <c r="G256" s="5" t="n">
         <v>8.99</v>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="257" s="4">
       <c r="A257" s="1" t="n">
@@ -8453,6 +9153,11 @@
       <c r="G257" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="258" s="4">
       <c r="A258" s="1" t="n">
@@ -8482,6 +9187,11 @@
       <c r="G258" s="5" t="n">
         <v>3.99</v>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="259" s="4">
       <c r="A259" s="1" t="n">
@@ -8511,6 +9221,11 @@
       <c r="G259" s="5" t="n">
         <v>2.99</v>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="260" s="4">
       <c r="A260" s="1" t="n">
@@ -8540,6 +9255,11 @@
       <c r="G260" s="5" t="n">
         <v>5.99</v>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="261" s="4">
       <c r="A261" s="1" t="n">
@@ -8569,6 +9289,11 @@
       <c r="G261" s="5" t="n">
         <v>15.99</v>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="262" s="4">
       <c r="A262" s="1" t="n">
@@ -8598,6 +9323,11 @@
       <c r="G262" s="5" t="n">
         <v>1.89</v>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="263" s="4">
       <c r="A263" s="1" t="n">
@@ -8627,6 +9357,11 @@
       <c r="G263" s="5" t="n">
         <v>1.49</v>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="264" s="4">
       <c r="A264" s="1" t="n">
@@ -8656,6 +9391,11 @@
       <c r="G264" s="5" t="n">
         <v>4.99</v>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="265" s="4">
       <c r="A265" s="1" t="n">
@@ -8685,6 +9425,11 @@
       <c r="G265" s="5" t="n">
         <v>11.96</v>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="266" s="4">
       <c r="A266" s="1" t="n">
@@ -8714,6 +9459,11 @@
       <c r="G266" s="5" t="n">
         <v>5.45</v>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="267" s="4">
       <c r="A267" s="1" t="n">
@@ -8743,6 +9493,11 @@
       <c r="G267" s="5" t="n">
         <v>5.45</v>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="268" s="4">
       <c r="A268" s="1" t="n">
@@ -8772,6 +9527,11 @@
       <c r="G268" s="5" t="n">
         <v>24.49</v>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="269" s="4">
       <c r="A269" s="1" t="n">
@@ -8801,6 +9561,11 @@
       <c r="G269" s="5" t="n">
         <v>1.99</v>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="270" s="4">
       <c r="A270" s="1" t="n">
@@ -8830,6 +9595,11 @@
       <c r="G270" s="5" t="n">
         <v>1.99</v>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="271" s="4">
       <c r="A271" s="1" t="n">
@@ -8859,6 +9629,11 @@
       <c r="G271" s="5" t="n">
         <v>19.16</v>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="272" s="4">
       <c r="A272" s="1" t="n">
@@ -8888,6 +9663,11 @@
       <c r="G272" s="5" t="n">
         <v>9.16</v>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="273" s="4">
       <c r="A273" s="1" t="n">
@@ -8917,6 +9697,11 @@
       <c r="G273" s="5" t="n">
         <v>16.67</v>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="274" s="4">
       <c r="A274" s="1" t="n">
@@ -8946,6 +9731,11 @@
       <c r="G274" s="5" t="n">
         <v>8.33</v>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="275" s="4">
       <c r="A275" s="1" t="n">
@@ -8975,6 +9765,11 @@
       <c r="G275" s="5" t="n">
         <v>25.43</v>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="276" s="4">
       <c r="A276" s="1" t="n">
@@ -9004,6 +9799,11 @@
       <c r="G276" s="5" t="n">
         <v>3.98</v>
       </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="277" s="4">
       <c r="A277" s="1" t="n">
@@ -9033,6 +9833,11 @@
       <c r="G277" s="5" t="n">
         <v>2.94</v>
       </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="278" s="4">
       <c r="A278" s="1" t="n">
@@ -9062,6 +9867,11 @@
       <c r="G278" s="5" t="n">
         <v>7.49</v>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="279" s="4">
       <c r="A279" s="1" t="n">
@@ -9091,6 +9901,11 @@
       <c r="G279" s="5" t="n">
         <v>1.33</v>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="280" s="4">
       <c r="A280" s="1" t="n">
@@ -9120,6 +9935,11 @@
       <c r="G280" s="5" t="n">
         <v>5.43</v>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="281" s="4">
       <c r="A281" s="1" t="n">
@@ -9149,6 +9969,11 @@
       <c r="G281" s="5" t="n">
         <v>10.6</v>
       </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="282" s="4">
       <c r="A282" s="1" t="n">
@@ -9178,6 +10003,11 @@
       <c r="G282" s="5" t="n">
         <v>10.6</v>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="283" s="4">
       <c r="A283" s="1" t="n">
@@ -9207,6 +10037,11 @@
       <c r="G283" s="5" t="n">
         <v>-9.99</v>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="284" s="4">
       <c r="A284" s="1" t="n">
@@ -9236,6 +10071,11 @@
       <c r="G284" s="5" t="n">
         <v>12.99</v>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="285" s="4">
       <c r="A285" s="1" t="n">
@@ -9265,6 +10105,11 @@
       <c r="G285" s="5" t="n">
         <v>14.49</v>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="286" s="4">
       <c r="A286" s="1" t="n">
@@ -9294,6 +10139,11 @@
       <c r="G286" s="5" t="n">
         <v>4.29</v>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="287" s="4">
       <c r="A287" s="1" t="n">
@@ -9323,6 +10173,11 @@
       <c r="G287" s="5" t="n">
         <v>0.96</v>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="288" s="4">
       <c r="A288" s="1" t="n">
@@ -9352,6 +10207,11 @@
       <c r="G288" s="5" t="n">
         <v>6.31</v>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="289" s="4">
       <c r="A289" s="1" t="n">
@@ -9381,6 +10241,11 @@
       <c r="G289" s="5" t="n">
         <v>12.3</v>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="290" s="4">
       <c r="A290" s="1" t="n">
@@ -9410,6 +10275,11 @@
       <c r="G290" s="5" t="n">
         <v>19.99</v>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="291" s="4">
       <c r="A291" s="1" t="n">
@@ -9439,6 +10309,11 @@
       <c r="G291" s="5" t="n">
         <v>3.99</v>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="292" s="4">
       <c r="A292" s="1" t="n">
@@ -9468,6 +10343,11 @@
       <c r="G292" s="5" t="n">
         <v>32.98999999999999</v>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="293" s="4">
       <c r="A293" s="1" t="n">
@@ -9497,6 +10377,11 @@
       <c r="G293" s="5" t="n">
         <v>17.97</v>
       </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="294" s="4">
       <c r="A294" s="1" t="n">
@@ -9526,6 +10411,11 @@
       <c r="G294" s="5" t="n">
         <v>8.99</v>
       </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="295" s="4">
       <c r="A295" s="1" t="n">
@@ -9555,6 +10445,11 @@
       <c r="G295" s="5" t="n">
         <v>10.79</v>
       </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="296" s="4">
       <c r="A296" s="1" t="n">
@@ -9584,6 +10479,11 @@
       <c r="G296" s="5" t="n">
         <v>5.98</v>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="297" s="4">
       <c r="A297" s="1" t="n">
@@ -9613,6 +10513,11 @@
       <c r="G297" s="5" t="n">
         <v>34.98</v>
       </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="298" s="4">
       <c r="A298" s="1" t="n">
@@ -9642,6 +10547,11 @@
       <c r="G298" s="5" t="n">
         <v>7.99</v>
       </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="299" s="4">
       <c r="A299" s="1" t="n">
@@ -9671,6 +10581,11 @@
       <c r="G299" s="5" t="n">
         <v>3.49</v>
       </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="300" s="4">
       <c r="A300" s="1" t="n">
@@ -9700,6 +10615,11 @@
       <c r="G300" s="5" t="n">
         <v>44.95</v>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="301" s="4">
       <c r="A301" s="1" t="n">
@@ -9729,6 +10649,11 @@
       <c r="G301" s="5" t="n">
         <v>47.4</v>
       </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="302" s="4">
       <c r="A302" s="1" t="n">
@@ -9758,6 +10683,11 @@
       <c r="G302" s="5" t="n">
         <v>51.42</v>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="303" s="4">
       <c r="A303" s="1" t="n">
@@ -9787,6 +10717,11 @@
       <c r="G303" s="5" t="n">
         <v>47.53</v>
       </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="304" s="4">
       <c r="A304" s="1" t="n">
@@ -9816,6 +10751,11 @@
       <c r="G304" s="5" t="n">
         <v>45.59</v>
       </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="305" s="4">
       <c r="A305" s="1" t="n">
@@ -9845,6 +10785,11 @@
       <c r="G305" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="306" s="4">
       <c r="A306" s="1" t="n">
@@ -9874,6 +10819,11 @@
       <c r="G306" s="5" t="n">
         <v>45.07</v>
       </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="307" s="4">
       <c r="A307" s="1" t="n">
@@ -9903,6 +10853,11 @@
       <c r="G307" s="5" t="n">
         <v>43.52</v>
       </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="308" s="4">
       <c r="A308" s="1" t="n">
@@ -9932,6 +10887,11 @@
       <c r="G308" s="5" t="n">
         <v>48.31</v>
       </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="309" s="4">
       <c r="A309" s="1" t="n">
@@ -9961,6 +10921,11 @@
       <c r="G309" s="5" t="n">
         <v>46.09</v>
       </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="310" s="4">
       <c r="A310" s="1" t="n">
@@ -9990,6 +10955,11 @@
       <c r="G310" s="5" t="n">
         <v>45.31</v>
       </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="311" s="4">
       <c r="A311" s="1" t="n">
@@ -10019,6 +10989,11 @@
       <c r="G311" s="5" t="n">
         <v>46.2</v>
       </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="312" s="4">
       <c r="A312" s="1" t="n">
@@ -10048,6 +11023,11 @@
       <c r="G312" s="5" t="n">
         <v>43.29</v>
       </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="313" s="4">
       <c r="A313" s="1" t="n">
@@ -10077,6 +11057,11 @@
       <c r="G313" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="314" s="4">
       <c r="A314" s="1" t="n">
@@ -10106,6 +11091,11 @@
       <c r="G314" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="315" s="4">
       <c r="A315" s="1" t="n">
@@ -10135,6 +11125,11 @@
       <c r="G315" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="316" s="4">
       <c r="A316" s="1" t="n">
@@ -10164,6 +11159,11 @@
       <c r="G316" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="317" s="4">
       <c r="A317" s="1" t="n">
@@ -10193,6 +11193,11 @@
       <c r="G317" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="318" s="4">
       <c r="A318" s="1" t="n">
@@ -10222,6 +11227,11 @@
       <c r="G318" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="319" s="4">
       <c r="A319" s="1" t="n">
@@ -10251,6 +11261,11 @@
       <c r="G319" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="320" s="4">
       <c r="A320" s="1" t="n">
@@ -10280,6 +11295,11 @@
       <c r="G320" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="321" s="4">
       <c r="A321" s="1" t="n">
@@ -10309,6 +11329,11 @@
       <c r="G321" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="322" s="4">
       <c r="A322" s="1" t="n">
@@ -10338,6 +11363,11 @@
       <c r="G322" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="323" s="4">
       <c r="A323" s="1" t="n">
@@ -10367,6 +11397,11 @@
       <c r="G323" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="324" s="4">
       <c r="A324" s="1" t="n">
@@ -10396,6 +11431,11 @@
       <c r="G324" s="5" t="n">
         <v>388.54</v>
       </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="325" s="4">
       <c r="A325" s="1" t="n">
@@ -10425,6 +11465,11 @@
       <c r="G325" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="326" s="4">
       <c r="A326" s="1" t="n">
@@ -10454,6 +11499,11 @@
       <c r="G326" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="327" s="4">
       <c r="A327" s="1" t="n">
@@ -10483,6 +11533,11 @@
       <c r="G327" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="328" s="4">
       <c r="A328" s="1" t="n">
@@ -10512,6 +11567,11 @@
       <c r="G328" s="5" t="n">
         <v>648</v>
       </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="329" s="4">
       <c r="A329" s="1" t="n">
@@ -10541,6 +11601,11 @@
       <c r="G329" s="5" t="n">
         <v>75.8</v>
       </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="330" s="4">
       <c r="A330" s="1" t="n">
@@ -10570,6 +11635,11 @@
       <c r="G330" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="331" s="4">
       <c r="A331" s="1" t="n">
@@ -10599,6 +11669,11 @@
       <c r="G331" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="332" s="4">
       <c r="A332" s="1" t="n">
@@ -10628,6 +11703,11 @@
       <c r="G332" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="333" s="4">
       <c r="A333" s="1" t="n">
@@ -10657,6 +11737,11 @@
       <c r="G333" s="5" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="334" s="4">
       <c r="A334" s="1" t="n">
@@ -10686,6 +11771,11 @@
       <c r="G334" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="335" s="4">
       <c r="A335" s="1" t="n">
@@ -10715,6 +11805,11 @@
       <c r="G335" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="336" s="4">
       <c r="A336" s="1" t="n">
@@ -10744,6 +11839,11 @@
       <c r="G336" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="337" s="4">
       <c r="A337" s="1" t="n">
@@ -10773,6 +11873,11 @@
       <c r="G337" s="5" t="n">
         <v>141.16</v>
       </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="338" s="4">
       <c r="A338" s="1" t="n">
@@ -10802,6 +11907,11 @@
       <c r="G338" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="339" s="4">
       <c r="A339" s="1" t="n">
@@ -10831,6 +11941,11 @@
       <c r="G339" s="5" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="340" s="4">
       <c r="A340" s="1" t="n">
@@ -10860,6 +11975,11 @@
       <c r="G340" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="341" s="4">
       <c r="A341" s="1" t="n">
@@ -10889,6 +12009,11 @@
       <c r="G341" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="342" s="4">
       <c r="A342" s="1" t="n">
@@ -10918,6 +12043,11 @@
       <c r="G342" s="5" t="n">
         <v>102.15</v>
       </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="343" s="4">
       <c r="A343" s="1" t="n">
@@ -10947,6 +12077,11 @@
       <c r="G343" s="5" t="n">
         <v>65</v>
       </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="344" s="4">
       <c r="A344" s="1" t="n">
@@ -10976,6 +12111,11 @@
       <c r="G344" s="5" t="n">
         <v>97.5</v>
       </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="345" s="4">
       <c r="A345" s="1" t="n">
@@ -11005,6 +12145,11 @@
       <c r="G345" s="5" t="n">
         <v>227.5</v>
       </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="346" s="4">
       <c r="A346" s="1" t="n">
@@ -11034,6 +12179,11 @@
       <c r="G346" s="5" t="n">
         <v>487.5</v>
       </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="347" s="4">
       <c r="A347" s="1" t="n">
@@ -11063,6 +12213,11 @@
       <c r="G347" s="5" t="n">
         <v>195</v>
       </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="348" s="4">
       <c r="A348" s="1" t="n">
@@ -11092,6 +12247,11 @@
       <c r="G348" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="349" s="4">
       <c r="A349" s="1" t="n">
@@ -11121,6 +12281,11 @@
       <c r="G349" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="350" s="4">
       <c r="A350" s="1" t="n">
@@ -11150,6 +12315,11 @@
       <c r="G350" s="5" t="n">
         <v>48.75</v>
       </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="351" s="4">
       <c r="A351" s="1" t="n">
@@ -11179,6 +12349,11 @@
       <c r="G351" s="5" t="n">
         <v>81.25</v>
       </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="352" s="4">
       <c r="A352" s="1" t="n">
@@ -11208,6 +12383,11 @@
       <c r="G352" s="5" t="n">
         <v>97.5</v>
       </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="353" s="4">
       <c r="A353" s="1" t="n">
@@ -11237,6 +12417,11 @@
       <c r="G353" s="5" t="n">
         <v>113.75</v>
       </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="354" s="4">
       <c r="A354" s="1" t="n">
@@ -11266,6 +12451,11 @@
       <c r="G354" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="355" s="4">
       <c r="A355" s="1" t="n">
@@ -11295,6 +12485,11 @@
       <c r="G355" s="5" t="n">
         <v>97.5</v>
       </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="356" s="4">
       <c r="A356" s="1" t="n">
@@ -11324,6 +12519,11 @@
       <c r="G356" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="357" s="4">
       <c r="A357" s="1" t="n">
@@ -11353,6 +12553,11 @@
       <c r="G357" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="358" s="4">
       <c r="A358" s="1" t="n">
@@ -11382,6 +12587,11 @@
       <c r="G358" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="359" s="4">
       <c r="A359" s="1" t="n">
@@ -11411,6 +12621,11 @@
       <c r="G359" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="360" s="4">
       <c r="A360" s="1" t="n">
@@ -11440,6 +12655,11 @@
       <c r="G360" s="5" t="n">
         <v>94</v>
       </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="361" s="4">
       <c r="A361" s="1" t="n">
@@ -11469,6 +12689,11 @@
       <c r="G361" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="362" s="4">
       <c r="A362" s="1" t="n">
@@ -11498,6 +12723,11 @@
       <c r="G362" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="363" s="4">
       <c r="A363" s="1" t="n">
@@ -11527,6 +12757,11 @@
       <c r="G363" s="5" t="n">
         <v>94</v>
       </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="364" s="4">
       <c r="A364" s="1" t="n">
@@ -11556,6 +12791,11 @@
       <c r="G364" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="365" s="4">
       <c r="A365" s="1" t="n">
@@ -11585,6 +12825,11 @@
       <c r="G365" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="366" s="4">
       <c r="A366" s="1" t="n">
@@ -11614,6 +12859,11 @@
       <c r="G366" s="5" t="n">
         <v>139.53</v>
       </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="367" s="4">
       <c r="A367" s="1" t="n">
@@ -11643,6 +12893,11 @@
       <c r="G367" s="5" t="n">
         <v>40.28</v>
       </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="368" s="4">
       <c r="A368" s="1" t="n">
@@ -11672,6 +12927,11 @@
       <c r="G368" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="369" s="4">
       <c r="A369" s="1" t="n">
@@ -11701,6 +12961,11 @@
       <c r="G369" s="5" t="n">
         <v>81.25</v>
       </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="370" s="4">
       <c r="A370" s="1" t="n">
@@ -11730,6 +12995,11 @@
       <c r="G370" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="371" s="4">
       <c r="A371" s="1" t="n">
@@ -11759,6 +13029,11 @@
       <c r="G371" s="5" t="n">
         <v>16.25</v>
       </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="372" s="4">
       <c r="A372" s="1" t="n">
@@ -11788,6 +13063,11 @@
       <c r="G372" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="373" s="4">
       <c r="A373" s="1" t="n">
@@ -11817,6 +13097,11 @@
       <c r="G373" s="5" t="n">
         <v>16.25</v>
       </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="374" s="4">
       <c r="A374" s="1" t="n">
@@ -11846,6 +13131,11 @@
       <c r="G374" s="5" t="n">
         <v>65</v>
       </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="375" s="4">
       <c r="A375" s="1" t="n">
@@ -11875,6 +13165,11 @@
       <c r="G375" s="5" t="n">
         <v>15.06</v>
       </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="376" s="4">
       <c r="A376" s="1" t="n">
@@ -11904,6 +13199,11 @@
       <c r="G376" s="5" t="n">
         <v>64.71000000000001</v>
       </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="377" s="4">
       <c r="A377" s="1" t="n">
@@ -11933,6 +13233,11 @@
       <c r="G377" s="5" t="n">
         <v>15.26</v>
       </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="378" s="4">
       <c r="A378" s="1" t="n">
@@ -11962,6 +13267,11 @@
       <c r="G378" s="5" t="n">
         <v>16.25</v>
       </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="379" s="4">
       <c r="A379" s="1" t="n">
@@ -11991,6 +13301,11 @@
       <c r="G379" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="380" s="4">
       <c r="A380" s="1" t="n">
@@ -12020,6 +13335,11 @@
       <c r="G380" s="5" t="n">
         <v>260</v>
       </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="381" s="4">
       <c r="A381" s="1" t="n">
@@ -12049,6 +13369,11 @@
       <c r="G381" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="382" s="4">
       <c r="A382" s="1" t="n">
@@ -12078,6 +13403,11 @@
       <c r="G382" s="5" t="n">
         <v>16.25</v>
       </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="383" s="4">
       <c r="A383" s="1" t="n">
@@ -12107,6 +13437,11 @@
       <c r="G383" s="5" t="n">
         <v>12.45</v>
       </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="384" s="4">
       <c r="A384" s="1" t="n">
@@ -12136,6 +13471,11 @@
       <c r="G384" s="5" t="n">
         <v>94</v>
       </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="385" s="4">
       <c r="A385" s="1" t="n">
@@ -12165,6 +13505,11 @@
       <c r="G385" s="5" t="n">
         <v>132.25</v>
       </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="386" s="4">
       <c r="A386" s="1" t="n">
@@ -12194,6 +13539,11 @@
       <c r="G386" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="387" s="4">
       <c r="A387" s="1" t="n">
@@ -12223,6 +13573,11 @@
       <c r="G387" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="388" s="4">
       <c r="A388" s="1" t="n">
@@ -12252,6 +13607,11 @@
       <c r="G388" s="5" t="n">
         <v>112.8</v>
       </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="389" s="4">
       <c r="A389" s="1" t="n">
@@ -12281,6 +13641,11 @@
       <c r="G389" s="5" t="n">
         <v>12.45</v>
       </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="390" s="4">
       <c r="A390" s="1" t="n">
@@ -12310,6 +13675,11 @@
       <c r="G390" s="5" t="n">
         <v>52.5</v>
       </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="391" s="4">
       <c r="A391" s="1" t="n">
@@ -12339,6 +13709,11 @@
       <c r="G391" s="5" t="n">
         <v>150</v>
       </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="392" s="4">
       <c r="A392" s="1" t="n">
@@ -12368,6 +13743,11 @@
       <c r="G392" s="5" t="n">
         <v>136.76</v>
       </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="393" s="4">
       <c r="A393" s="1" t="n">
@@ -12397,6 +13777,11 @@
       <c r="G393" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="394" s="4">
       <c r="A394" s="1" t="n">
@@ -12426,6 +13811,11 @@
       <c r="G394" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="395" s="4">
       <c r="A395" s="1" t="n">
@@ -12455,6 +13845,11 @@
       <c r="G395" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="396" s="4">
       <c r="A396" s="1" t="n">
@@ -12484,6 +13879,11 @@
       <c r="G396" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="397" s="4">
       <c r="A397" s="1" t="n">
@@ -12513,6 +13913,11 @@
       <c r="G397" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="398" s="4">
       <c r="A398" s="1" t="n">
@@ -12542,6 +13947,11 @@
       <c r="G398" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="399" s="4">
       <c r="A399" s="1" t="n">
@@ -12571,6 +13981,11 @@
       <c r="G399" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="400" s="4">
       <c r="A400" s="1" t="n">
@@ -12600,6 +14015,11 @@
       <c r="G400" s="5" t="n">
         <v>8.77</v>
       </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="401" s="4">
       <c r="A401" s="1" t="n">
@@ -12629,6 +14049,11 @@
       <c r="G401" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="402" s="4">
       <c r="A402" s="1" t="n">
@@ -12658,6 +14083,11 @@
       <c r="G402" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="403" s="4">
       <c r="A403" s="1" t="n">
@@ -12687,6 +14117,11 @@
       <c r="G403" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="404" s="4">
       <c r="A404" s="1" t="n">
@@ -12716,6 +14151,11 @@
       <c r="G404" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="405" s="4">
       <c r="A405" s="1" t="n">
@@ -12745,6 +14185,11 @@
       <c r="G405" s="5" t="n">
         <v>350</v>
       </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="406" s="4">
       <c r="A406" s="1" t="n">
@@ -12774,6 +14219,11 @@
       <c r="G406" s="5" t="n">
         <v>395</v>
       </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="407" s="4">
       <c r="A407" s="1" t="n">
@@ -12803,6 +14253,11 @@
       <c r="G407" s="5" t="n">
         <v>185.79</v>
       </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="408" s="4">
       <c r="A408" s="1" t="n">
@@ -12832,6 +14287,11 @@
       <c r="G408" s="5" t="n">
         <v>199</v>
       </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="409" s="4">
       <c r="A409" s="1" t="n">
@@ -12861,6 +14321,11 @@
       <c r="G409" s="5" t="n">
         <v>170</v>
       </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="410" s="4">
       <c r="A410" s="1" t="n">
@@ -12890,6 +14355,11 @@
       <c r="G410" s="5" t="n">
         <v>97.5</v>
       </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="411" s="4">
       <c r="A411" s="1" t="n">
@@ -12919,6 +14389,11 @@
       <c r="G411" s="5" t="n">
         <v>745</v>
       </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="412" s="4">
       <c r="A412" s="1" t="n">
@@ -12948,6 +14423,11 @@
       <c r="G412" s="5" t="n">
         <v>145.5</v>
       </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="413" s="4">
       <c r="A413" s="1" t="n">
@@ -12977,6 +14457,11 @@
       <c r="G413" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="414" s="4">
       <c r="A414" s="1" t="n">
@@ -13006,6 +14491,11 @@
       <c r="G414" s="5" t="n">
         <v>24.4</v>
       </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="415" s="4">
       <c r="A415" s="1" t="n">
@@ -13035,6 +14525,11 @@
       <c r="G415" s="5" t="n">
         <v>97.56</v>
       </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="416" s="4">
       <c r="A416" s="1" t="n">
@@ -13064,6 +14559,11 @@
       <c r="G416" s="5" t="n">
         <v>29.4</v>
       </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="417" s="4">
       <c r="A417" s="1" t="n">
@@ -13093,6 +14593,11 @@
       <c r="G417" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="418" s="4">
       <c r="A418" s="1" t="n">
@@ -13122,6 +14627,11 @@
       <c r="G418" s="5" t="n">
         <v>53.7</v>
       </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="419" s="4">
       <c r="A419" s="1" t="n">
@@ -13151,6 +14661,11 @@
       <c r="G419" s="5" t="n">
         <v>17.2</v>
       </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="420" s="4">
       <c r="A420" s="1" t="n">
@@ -13180,6 +14695,11 @@
       <c r="G420" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="421" s="4">
       <c r="A421" s="1" t="n">
@@ -13209,6 +14729,11 @@
       <c r="G421" s="5" t="n">
         <v>94</v>
       </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="422" s="4">
       <c r="A422" s="1" t="n">
@@ -13238,6 +14763,11 @@
       <c r="G422" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="423" s="4">
       <c r="A423" s="1" t="n">
@@ -13267,6 +14797,11 @@
       <c r="G423" s="5" t="n">
         <v>94</v>
       </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="424" s="4">
       <c r="A424" s="1" t="n">
@@ -13296,6 +14831,11 @@
       <c r="G424" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="425" s="4">
       <c r="A425" s="1" t="n">
@@ -13325,6 +14865,11 @@
       <c r="G425" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="426" s="4">
       <c r="A426" s="1" t="n">
@@ -13354,6 +14899,11 @@
       <c r="G426" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="427" s="4">
       <c r="A427" s="1" t="n">
@@ -13383,6 +14933,11 @@
       <c r="G427" s="5" t="n">
         <v>14.94</v>
       </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="428" s="4">
       <c r="A428" s="1" t="n">
@@ -13412,6 +14967,11 @@
       <c r="G428" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="429" s="4">
       <c r="A429" s="1" t="n">
@@ -13441,6 +15001,11 @@
       <c r="G429" s="5" t="n">
         <v>12.45</v>
       </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="430" s="4">
       <c r="A430" s="1" t="n">
@@ -13470,6 +15035,11 @@
       <c r="G430" s="5" t="n">
         <v>135.63</v>
       </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="431" s="4">
       <c r="A431" s="1" t="n">
@@ -13499,6 +15069,11 @@
       <c r="G431" s="5" t="n">
         <v>480</v>
       </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="432" s="4">
       <c r="A432" s="1" t="n">
@@ -13528,6 +15103,11 @@
       <c r="G432" s="5" t="n">
         <v>480</v>
       </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="433" s="4">
       <c r="A433" s="1" t="n">
@@ -13557,6 +15137,11 @@
       <c r="G433" s="5" t="n">
         <v>480</v>
       </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="434" s="4">
       <c r="A434" s="1" t="n">
@@ -13586,6 +15171,11 @@
       <c r="G434" s="5" t="n">
         <v>569</v>
       </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="435" s="4">
       <c r="A435" s="1" t="n">
@@ -13615,6 +15205,11 @@
       <c r="G435" s="5" t="n">
         <v>17</v>
       </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="436" s="4">
       <c r="A436" s="1" t="n">
@@ -13644,6 +15239,11 @@
       <c r="G436" s="5" t="n">
         <v>17</v>
       </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="437" s="4">
       <c r="A437" s="1" t="n">
@@ -13673,6 +15273,11 @@
       <c r="G437" s="5" t="n">
         <v>68</v>
       </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="438" s="4">
       <c r="A438" s="1" t="n">
@@ -13702,6 +15307,11 @@
       <c r="G438" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="439" s="4">
       <c r="A439" s="1" t="n">
@@ -13731,6 +15341,11 @@
       <c r="G439" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="440" s="4">
       <c r="A440" s="1" t="n">
@@ -13760,6 +15375,11 @@
       <c r="G440" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="441" s="4">
       <c r="A441" s="1" t="n">
@@ -13789,6 +15409,11 @@
       <c r="G441" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="442" s="4">
       <c r="A442" s="1" t="n">
@@ -13818,6 +15443,11 @@
       <c r="G442" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="443" s="4">
       <c r="A443" s="1" t="n">
@@ -13847,6 +15477,11 @@
       <c r="G443" s="5" t="n">
         <v>30</v>
       </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="444" s="4">
       <c r="A444" s="1" t="n">
@@ -13876,6 +15511,11 @@
       <c r="G444" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="445" s="4">
       <c r="A445" s="1" t="n">
@@ -13905,6 +15545,11 @@
       <c r="G445" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="446" s="4">
       <c r="A446" s="1" t="n">
@@ -13934,6 +15579,11 @@
       <c r="G446" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="447" s="4">
       <c r="A447" s="1" t="n">
@@ -13963,6 +15613,11 @@
       <c r="G447" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="448" s="4">
       <c r="A448" s="1" t="n">
@@ -13992,6 +15647,11 @@
       <c r="G448" s="5" t="n">
         <v>37</v>
       </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="449" s="4">
       <c r="A449" s="1" t="n">
@@ -14021,6 +15681,11 @@
       <c r="G449" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="450" s="4">
       <c r="A450" s="1" t="n">
@@ -14050,6 +15715,11 @@
       <c r="G450" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="451" s="4">
       <c r="A451" s="1" t="n">
@@ -14079,6 +15749,11 @@
       <c r="G451" s="5" t="n">
         <v>18.5</v>
       </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="452" s="4">
       <c r="A452" s="1" t="n">
@@ -14108,6 +15783,11 @@
       <c r="G452" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="453" s="4">
       <c r="A453" s="1" t="n">
@@ -14137,6 +15817,11 @@
       <c r="G453" s="5" t="n">
         <v>207.67</v>
       </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="454" s="4">
       <c r="A454" s="1" t="n">
@@ -14166,6 +15851,11 @@
       <c r="G454" s="5" t="n">
         <v>37</v>
       </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="455" s="4">
       <c r="A455" s="1" t="n">
@@ -14195,6 +15885,11 @@
       <c r="G455" s="5" t="n">
         <v>33</v>
       </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="456" s="4">
       <c r="A456" s="1" t="n">
@@ -14224,6 +15919,11 @@
       <c r="G456" s="5" t="n">
         <v>3.6</v>
       </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="457" s="4">
       <c r="A457" s="1" t="n">
@@ -14253,6 +15953,11 @@
       <c r="G457" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="458" s="4">
       <c r="A458" s="1" t="n">
@@ -14282,6 +15987,11 @@
       <c r="G458" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="459" s="4">
       <c r="A459" s="1" t="n">
@@ -14311,6 +16021,11 @@
       <c r="G459" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="460" s="4">
       <c r="A460" s="1" t="n">
@@ -14340,6 +16055,11 @@
       <c r="G460" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="461" s="4">
       <c r="A461" s="1" t="n">
@@ -14369,6 +16089,11 @@
       <c r="G461" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="462" s="4">
       <c r="A462" s="1" t="n">
@@ -14398,6 +16123,11 @@
       <c r="G462" s="5" t="n">
         <v>4.02</v>
       </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="463" s="4">
       <c r="A463" s="1" t="n">
@@ -14427,6 +16157,11 @@
       <c r="G463" s="5" t="n">
         <v>4.3</v>
       </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="464" s="4">
       <c r="A464" s="1" t="n">
@@ -14455,6 +16190,11 @@
       </c>
       <c r="G464" s="5" t="n">
         <v>48.57</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="465" s="4">
@@ -14485,6 +16225,11 @@
       <c r="G465" s="5" t="n">
         <v>2000</v>
       </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="466" s="4">
       <c r="A466" s="1" t="n">
@@ -14514,6 +16259,11 @@
       <c r="G466" s="5" t="n">
         <v>-1333.33</v>
       </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="467" s="4">
       <c r="A467" s="1" t="n">
@@ -14543,6 +16293,11 @@
       <c r="G467" s="5" t="n">
         <v>-1544.49</v>
       </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="468" s="4">
       <c r="A468" s="1" t="n">
@@ -14572,6 +16327,11 @@
       <c r="G468" s="5" t="n">
         <v>1928.77</v>
       </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="469" s="4">
       <c r="A469" s="1" t="n">
@@ -14601,6 +16361,11 @@
       <c r="G469" s="5" t="n">
         <v>2000</v>
       </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="470" s="4">
       <c r="A470" s="1" t="n">
@@ -14630,6 +16395,11 @@
       <c r="G470" s="5" t="n">
         <v>2000</v>
       </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="471" s="4">
       <c r="A471" s="1" t="n">
@@ -14659,6 +16429,11 @@
       <c r="G471" s="5" t="n">
         <v>2000</v>
       </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="472" s="4">
       <c r="A472" s="1" t="n">
@@ -14688,6 +16463,11 @@
       <c r="G472" s="5" t="n">
         <v>185.66</v>
       </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="473" s="4">
       <c r="A473" s="1" t="n">
@@ -14717,6 +16497,11 @@
       <c r="G473" s="5" t="n">
         <v>119.22</v>
       </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="474" s="4">
       <c r="A474" s="1" t="n">
@@ -14746,6 +16531,11 @@
       <c r="G474" s="5" t="n">
         <v>400.68</v>
       </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="475" s="4">
       <c r="A475" s="1" t="n">
@@ -14775,6 +16565,11 @@
       <c r="G475" s="5" t="n">
         <v>811</v>
       </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="476" s="4">
       <c r="A476" s="1" t="n">
@@ -14804,6 +16599,11 @@
       <c r="G476" s="5" t="n">
         <v>-61</v>
       </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="477" s="4">
       <c r="A477" s="1" t="n">
@@ -14833,6 +16633,11 @@
       <c r="G477" s="5" t="n">
         <v>750</v>
       </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="478" s="4">
       <c r="A478" s="1" t="n">
@@ -14862,6 +16667,11 @@
       <c r="G478" s="5" t="n">
         <v>109.16</v>
       </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="479" s="4">
       <c r="A479" s="1" t="n">
@@ -14891,6 +16701,11 @@
       <c r="G479" s="5" t="n">
         <v>90.77000000000001</v>
       </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="480" s="4">
       <c r="A480" s="1" t="n">
@@ -14920,6 +16735,11 @@
       <c r="G480" s="5" t="n">
         <v>733</v>
       </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="481" s="4">
       <c r="A481" s="1" t="n">
@@ -14949,6 +16769,11 @@
       <c r="G481" s="5" t="n">
         <v>272.34</v>
       </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="482" s="4">
       <c r="A482" s="1" t="n">
@@ -14978,6 +16803,11 @@
       <c r="G482" s="5" t="n">
         <v>733</v>
       </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="483" s="4">
       <c r="A483" s="1" t="n">
@@ -15007,6 +16837,11 @@
       <c r="G483" s="5" t="n">
         <v>-2211.19</v>
       </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="484" s="4">
       <c r="A484" s="1" t="n">
@@ -15036,6 +16871,11 @@
       <c r="G484" s="5" t="n">
         <v>1050</v>
       </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="485" s="4">
       <c r="A485" s="1" t="n">
@@ -15065,6 +16905,11 @@
       <c r="G485" s="5" t="n">
         <v>350</v>
       </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="486" s="4">
       <c r="A486" s="1" t="n">
@@ -15094,6 +16939,11 @@
       <c r="G486" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="487" s="4">
       <c r="A487" s="1" t="n">
@@ -15123,6 +16973,11 @@
       <c r="G487" s="5" t="n">
         <v>470</v>
       </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="488" s="4">
       <c r="A488" s="1" t="n">
@@ -15152,6 +17007,11 @@
       <c r="G488" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="489" s="4">
       <c r="A489" s="1" t="n">
@@ -15181,6 +17041,11 @@
       <c r="G489" s="5" t="n">
         <v>265.95</v>
       </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="490" s="4">
       <c r="A490" s="1" t="n">
@@ -15210,6 +17075,11 @@
       <c r="G490" s="5" t="n">
         <v>1050</v>
       </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="491" s="4">
       <c r="A491" s="1" t="n">
@@ -15239,6 +17109,11 @@
       <c r="G491" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="492" s="4">
       <c r="A492" s="1" t="n">
@@ -15268,6 +17143,11 @@
       <c r="G492" s="5" t="n">
         <v>-76.09999999999999</v>
       </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="493" s="4">
       <c r="A493" s="1" t="n">
@@ -15297,6 +17177,11 @@
       <c r="G493" s="5" t="n">
         <v>79.22999999999999</v>
       </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="494" s="4">
       <c r="A494" s="1" t="n">
@@ -15326,6 +17211,11 @@
       <c r="G494" s="5" t="n">
         <v>32.48</v>
       </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="495" s="4">
       <c r="A495" s="1" t="n">
@@ -15355,6 +17245,11 @@
       <c r="G495" s="5" t="n">
         <v>247.5</v>
       </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="496" s="4">
       <c r="A496" s="1" t="n">
@@ -15384,6 +17279,11 @@
       <c r="G496" s="5" t="n">
         <v>272.34</v>
       </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="497" s="4">
       <c r="A497" s="1" t="n">
@@ -15413,6 +17313,11 @@
       <c r="G497" s="5" t="n">
         <v>349.46</v>
       </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="498" s="4">
       <c r="A498" s="1" t="n">
@@ -15442,6 +17347,11 @@
       <c r="G498" s="5" t="n">
         <v>210.5</v>
       </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="499" s="4">
       <c r="A499" s="1" t="n">
@@ -15471,6 +17381,11 @@
       <c r="G499" s="5" t="n">
         <v>145.72</v>
       </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="500" s="4">
       <c r="A500" s="1" t="n">
@@ -15500,6 +17415,11 @@
       <c r="G500" s="5" t="n">
         <v>733</v>
       </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="501" s="4">
       <c r="A501" s="1" t="n">
@@ -15529,6 +17449,11 @@
       <c r="G501" s="5" t="n">
         <v>-272.34</v>
       </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Rent and Utilities</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="502" s="4">
       <c r="A502" s="1" t="n">
@@ -15558,6 +17483,11 @@
       <c r="G502" s="5" t="n">
         <v>1253.8</v>
       </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="503" s="4">
       <c r="A503" s="1" t="n">
@@ -15587,6 +17517,11 @@
       <c r="G503" s="5" t="n">
         <v>461</v>
       </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="504" s="4">
       <c r="A504" s="1" t="n">
@@ -15616,6 +17551,11 @@
       <c r="G504" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="505" s="4">
       <c r="A505" s="1" t="n">
@@ -15645,6 +17585,11 @@
       <c r="G505" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="506" s="4">
       <c r="A506" s="1" t="n">
@@ -15674,6 +17619,11 @@
       <c r="G506" s="5" t="n">
         <v>5650</v>
       </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="507" s="4">
       <c r="A507" s="1" t="n">
@@ -15703,6 +17653,11 @@
       <c r="G507" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="508" s="4">
       <c r="A508" s="1" t="n">
@@ -15732,6 +17687,11 @@
       <c r="G508" s="5" t="n">
         <v>120</v>
       </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="509" s="4">
       <c r="A509" s="1" t="n">
@@ -15761,6 +17721,11 @@
       <c r="G509" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="510" s="4">
       <c r="A510" s="1" t="n">
@@ -15790,6 +17755,11 @@
       <c r="G510" s="5" t="n">
         <v>120</v>
       </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="511" s="4">
       <c r="A511" s="1" t="n">
@@ -15819,6 +17789,11 @@
       <c r="G511" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="512" s="4">
       <c r="A512" s="1" t="n">
@@ -15848,6 +17823,11 @@
       <c r="G512" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="513" s="4">
       <c r="A513" s="1" t="n">
@@ -15877,6 +17857,11 @@
       <c r="G513" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="514" s="4">
       <c r="A514" s="1" t="n">
@@ -15906,6 +17891,11 @@
       <c r="G514" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="515" s="4">
       <c r="A515" s="1" t="n">
@@ -15935,6 +17925,11 @@
       <c r="G515" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="516" s="4">
       <c r="A516" s="1" t="n">
@@ -15964,6 +17959,11 @@
       <c r="G516" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="517" s="4">
       <c r="A517" s="1" t="n">
@@ -15993,6 +17993,11 @@
       <c r="G517" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="518" s="4">
       <c r="A518" s="1" t="n">
@@ -16022,6 +18027,11 @@
       <c r="G518" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="519" s="4">
       <c r="A519" s="1" t="n">
@@ -16051,6 +18061,11 @@
       <c r="G519" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="520" s="4">
       <c r="A520" s="1" t="n">
@@ -16080,6 +18095,11 @@
       <c r="G520" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="521" s="4">
       <c r="A521" s="1" t="n">
@@ -16109,6 +18129,11 @@
       <c r="G521" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="522" s="4">
       <c r="A522" s="1" t="n">
@@ -16138,6 +18163,11 @@
       <c r="G522" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="523" s="4">
       <c r="A523" s="1" t="n">
@@ -16167,6 +18197,11 @@
       <c r="G523" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="524" s="4">
       <c r="A524" s="1" t="n">
@@ -16196,6 +18231,11 @@
       <c r="G524" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="525" s="4">
       <c r="A525" s="1" t="n">
@@ -16225,6 +18265,11 @@
       <c r="G525" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="526" s="4">
       <c r="A526" s="1" t="n">
@@ -16254,6 +18299,11 @@
       <c r="G526" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="527" s="4">
       <c r="A527" s="1" t="n">
@@ -16283,6 +18333,11 @@
       <c r="G527" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="528" s="4">
       <c r="A528" s="1" t="n">
@@ -16312,6 +18367,11 @@
       <c r="G528" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="529" s="4">
       <c r="A529" s="1" t="n">
@@ -16341,6 +18401,11 @@
       <c r="G529" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="530" s="4">
       <c r="A530" s="1" t="n">
@@ -16370,6 +18435,11 @@
       <c r="G530" s="5" t="n">
         <v>124</v>
       </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="531" s="4">
       <c r="A531" s="1" t="n">
@@ -16399,6 +18469,11 @@
       <c r="G531" s="5" t="n">
         <v>35</v>
       </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="532" s="4">
       <c r="A532" s="1" t="n">
@@ -16428,6 +18503,11 @@
       <c r="G532" s="5" t="n">
         <v>850</v>
       </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="533" s="4">
       <c r="A533" s="1" t="n">
@@ -16457,6 +18537,11 @@
       <c r="G533" s="5" t="n">
         <v>99</v>
       </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="534" s="4">
       <c r="A534" s="1" t="n">
@@ -16486,6 +18571,11 @@
       <c r="G534" s="5" t="n">
         <v>795</v>
       </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="535" s="4">
       <c r="A535" s="1" t="n">
@@ -16515,6 +18605,11 @@
       <c r="G535" s="5" t="n">
         <v>48.75</v>
       </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="536" s="4">
       <c r="A536" s="1" t="n">
@@ -16544,6 +18639,11 @@
       <c r="G536" s="5" t="n">
         <v>795</v>
       </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="537" s="4">
       <c r="A537" s="1" t="n">
@@ -16573,6 +18673,11 @@
       <c r="G537" s="5" t="n">
         <v>352</v>
       </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="538" s="4">
       <c r="A538" s="1" t="n">
@@ -16604,7 +18709,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16638,7 +18743,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16672,7 +18777,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16706,7 +18811,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16740,7 +18845,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16774,7 +18879,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16808,7 +18913,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16842,7 +18947,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16876,7 +18981,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16910,7 +19015,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16944,7 +19049,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -16978,7 +19083,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -17012,7 +19117,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -17046,7 +19151,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -17080,7 +19185,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -17114,7 +19219,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Purchases</t>
         </is>
       </c>
     </row>
@@ -17146,6 +19251,11 @@
       <c r="G554" s="5" t="n">
         <v>245</v>
       </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Purchases</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="555" s="4">
       <c r="A555" s="1" t="n">
@@ -17175,6 +19285,11 @@
       <c r="G555" s="5" t="n">
         <v>60.51000000000001</v>
       </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="556" s="4">
       <c r="A556" s="1" t="n">
@@ -17204,6 +19319,11 @@
       <c r="G556" s="5" t="n">
         <v>95</v>
       </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="557" s="4">
       <c r="A557" s="1" t="n">
@@ -17233,6 +19353,11 @@
       <c r="G557" s="5" t="n">
         <v>130</v>
       </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="558" s="4">
       <c r="A558" s="1" t="n">
@@ -17262,6 +19387,11 @@
       <c r="G558" s="5" t="n">
         <v>6.659999999999999</v>
       </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="559" s="4">
       <c r="A559" s="1" t="n">
@@ -17291,6 +19421,11 @@
       <c r="G559" s="5" t="n">
         <v>1.42</v>
       </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="560" s="4">
       <c r="A560" s="1" t="n">
@@ -17320,6 +19455,11 @@
       <c r="G560" s="5" t="n">
         <v>9.15</v>
       </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="561" s="4">
       <c r="A561" s="1" t="n">
@@ -17349,6 +19489,11 @@
       <c r="G561" s="5" t="n">
         <v>1900</v>
       </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="562" s="4">
       <c r="A562" s="1" t="n">
@@ -17378,6 +19523,11 @@
       <c r="G562" s="5" t="n">
         <v>40</v>
       </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="563" s="4">
       <c r="A563" s="1" t="n">
@@ -17407,6 +19557,11 @@
       <c r="G563" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="564" s="4">
       <c r="A564" s="1" t="n">
@@ -17436,6 +19591,11 @@
       <c r="G564" s="5" t="n">
         <v>-20</v>
       </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="565" s="4">
       <c r="A565" s="1" t="n">
@@ -17465,6 +19625,11 @@
       <c r="G565" s="5" t="n">
         <v>300</v>
       </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="566" s="4">
       <c r="A566" s="1" t="n">
@@ -17494,6 +19659,11 @@
       <c r="G566" s="5" t="n">
         <v>32.5</v>
       </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="567" s="4">
       <c r="A567" s="1" t="n">
@@ -17523,6 +19693,11 @@
       <c r="G567" s="5" t="n">
         <v>97.5</v>
       </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="568" s="4">
       <c r="A568" s="1" t="n">
@@ -17552,6 +19727,11 @@
       <c r="G568" s="5" t="n">
         <v>16.25</v>
       </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="569" s="4">
       <c r="A569" s="1" t="n">
@@ -17581,6 +19761,11 @@
       <c r="G569" s="5" t="n">
         <v>357.5</v>
       </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="570" s="4">
       <c r="A570" s="1" t="n">
@@ -17610,6 +19795,11 @@
       <c r="G570" s="5" t="n">
         <v>111</v>
       </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="571" s="4">
       <c r="A571" s="1" t="n">
@@ -17639,6 +19829,11 @@
       <c r="G571" s="5" t="n">
         <v>44.01000000000001</v>
       </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="572" s="4">
       <c r="A572" s="1" t="n">
@@ -17668,6 +19863,11 @@
       <c r="G572" s="5" t="n">
         <v>27</v>
       </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="573" s="4">
       <c r="A573" s="1" t="n">
@@ -17697,6 +19897,11 @@
       <c r="G573" s="5" t="n">
         <v>58.45</v>
       </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="574" s="4">
       <c r="A574" s="1" t="n">
@@ -18066,6 +20271,11 @@
       <c r="G584" s="5" t="n">
         <v>76.22</v>
       </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="585" s="4">
       <c r="A585" s="1" t="n">
@@ -18095,6 +20305,11 @@
       <c r="G585" s="5" t="n">
         <v>79.64</v>
       </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="586" s="4">
       <c r="A586" s="1" t="n">
@@ -18124,6 +20339,11 @@
       <c r="G586" s="5" t="n">
         <v>179.17</v>
       </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="587" s="4">
       <c r="A587" s="1" t="n">
@@ -18153,6 +20373,11 @@
       <c r="G587" s="5" t="n">
         <v>41.67</v>
       </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="588" s="4">
       <c r="A588" s="1" t="n">
@@ -18182,6 +20407,11 @@
       <c r="G588" s="5" t="n">
         <v>-41.67</v>
       </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="589" s="4">
       <c r="A589" s="1" t="n">
@@ -18211,6 +20441,11 @@
       <c r="G589" s="5" t="n">
         <v>60</v>
       </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="590" s="4">
       <c r="A590" s="1" t="n">
@@ -18240,6 +20475,11 @@
       <c r="G590" s="5" t="n">
         <v>94.92999999999999</v>
       </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="591" s="4">
       <c r="A591" s="1" t="n">
@@ -18269,6 +20509,11 @@
       <c r="G591" s="5" t="n">
         <v>78.27000000000001</v>
       </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="592" s="4">
       <c r="A592" s="1" t="n">
@@ -18298,6 +20543,11 @@
       <c r="G592" s="5" t="n">
         <v>206.02</v>
       </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="593" s="4">
       <c r="A593" s="1" t="n">
@@ -18327,6 +20577,11 @@
       <c r="G593" s="5" t="n">
         <v>193.88</v>
       </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="594" s="4">
       <c r="A594" s="1" t="n">
@@ -18356,6 +20611,11 @@
       <c r="G594" s="5" t="n">
         <v>108.33</v>
       </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="595" s="4">
       <c r="A595" s="1" t="n">
@@ -18385,6 +20645,11 @@
       <c r="G595" s="5" t="n">
         <v>72.08</v>
       </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="596" s="4">
       <c r="A596" s="1" t="n">
@@ -18414,6 +20679,11 @@
       <c r="G596" s="5" t="n">
         <v>116.67</v>
       </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="597" s="4">
       <c r="A597" s="1" t="n">
@@ -18443,6 +20713,11 @@
       <c r="G597" s="5" t="n">
         <v>180</v>
       </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="598" s="4">
       <c r="A598" s="1" t="n">
@@ -18472,6 +20747,11 @@
       <c r="G598" s="5" t="n">
         <v>53.96</v>
       </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="599" s="4">
       <c r="A599" s="1" t="n">
@@ -18501,6 +20781,11 @@
       <c r="G599" s="5" t="n">
         <v>277.15</v>
       </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="600" s="4">
       <c r="A600" s="1" t="n">
@@ -18530,6 +20815,11 @@
       <c r="G600" s="5" t="n">
         <v>109.17</v>
       </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="601" s="4">
       <c r="A601" s="1" t="n">
@@ -18559,6 +20849,11 @@
       <c r="G601" s="5" t="n">
         <v>85</v>
       </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="602" s="4">
       <c r="A602" s="1" t="n">
@@ -18588,6 +20883,11 @@
       <c r="G602" s="5" t="n">
         <v>142.2</v>
       </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="603" s="4">
       <c r="A603" s="1" t="n">
@@ -18617,6 +20917,11 @@
       <c r="G603" s="5" t="n">
         <v>61</v>
       </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="604" s="4">
       <c r="A604" s="1" t="n">
@@ -18646,6 +20951,11 @@
       <c r="G604" s="5" t="n">
         <v>7.2</v>
       </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="605" s="4">
       <c r="A605" s="1" t="n">
@@ -18675,6 +20985,11 @@
       <c r="G605" s="5" t="n">
         <v>56.9</v>
       </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="606" s="4">
       <c r="A606" s="1" t="n">
@@ -18704,6 +21019,11 @@
       <c r="G606" s="5" t="n">
         <v>118.81</v>
       </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="607" s="4">
       <c r="A607" s="1" t="n">
@@ -18733,6 +21053,11 @@
       <c r="G607" s="5" t="n">
         <v>303.9</v>
       </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="608" s="4">
       <c r="A608" s="1" t="n">
@@ -18762,6 +21087,11 @@
       <c r="G608" s="5" t="n">
         <v>12.4</v>
       </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="609" s="4">
       <c r="A609" s="1" t="n">
@@ -18791,6 +21121,11 @@
       <c r="G609" s="5" t="n">
         <v>59.4</v>
       </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="610" s="4">
       <c r="A610" s="1" t="n">
@@ -18820,6 +21155,11 @@
       <c r="G610" s="5" t="n">
         <v>89.52000000000001</v>
       </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="611" s="4">
       <c r="A611" s="1" t="n">
@@ -18849,6 +21189,11 @@
       <c r="G611" s="5" t="n">
         <v>99.5</v>
       </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="612" s="4">
       <c r="A612" s="1" t="n">
@@ -19660,6 +22005,11 @@
       <c r="G635" s="5" t="n">
         <v>4</v>
       </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="636" s="4">
       <c r="A636" s="1" t="n">
@@ -19689,6 +22039,11 @@
       <c r="G636" s="5" t="n">
         <v>2.7</v>
       </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="637" s="4">
       <c r="A637" s="1" t="n">
@@ -19718,6 +22073,11 @@
       <c r="G637" s="5" t="n">
         <v>105</v>
       </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="638" s="4">
       <c r="A638" s="1" t="n">
@@ -19747,6 +22107,11 @@
       <c r="G638" s="5" t="n">
         <v>5.9</v>
       </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="639" s="4">
       <c r="A639" s="1" t="n">
@@ -19776,6 +22141,11 @@
       <c r="G639" s="5" t="n">
         <v>6.75</v>
       </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="640" s="4">
       <c r="A640" s="1" t="n">
@@ -19805,6 +22175,11 @@
       <c r="G640" s="5" t="n">
         <v>13.9</v>
       </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="641" s="4">
       <c r="A641" s="1" t="n">
@@ -19834,6 +22209,11 @@
       <c r="G641" s="5" t="n">
         <v>5.3</v>
       </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="642" s="4">
       <c r="A642" s="1" t="n">
@@ -19863,6 +22243,11 @@
       <c r="G642" s="5" t="n">
         <v>46.52</v>
       </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="643" s="4">
       <c r="A643" s="1" t="n">
@@ -19892,6 +22277,11 @@
       <c r="G643" s="5" t="n">
         <v>3.92</v>
       </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="644" s="4">
       <c r="A644" s="1" t="n">
@@ -19921,6 +22311,11 @@
       <c r="G644" s="5" t="n">
         <v>9.870000000000001</v>
       </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="645" s="4">
       <c r="A645" s="1" t="n">
@@ -19950,6 +22345,11 @@
       <c r="G645" s="5" t="n">
         <v>6.04</v>
       </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="646" s="4">
       <c r="A646" s="1" t="n">
@@ -19979,6 +22379,11 @@
       <c r="G646" s="5" t="n">
         <v>9.879999999999999</v>
       </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="647" s="4">
       <c r="A647" s="1" t="n">
@@ -20008,6 +22413,11 @@
       <c r="G647" s="5" t="n">
         <v>4.46</v>
       </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="648" s="4">
       <c r="A648" s="1" t="n">
@@ -20037,6 +22447,11 @@
       <c r="G648" s="5" t="n">
         <v>45</v>
       </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="649" s="4">
       <c r="A649" s="1" t="n">
@@ -20066,6 +22481,11 @@
       <c r="G649" s="5" t="n">
         <v>-9.879999999999999</v>
       </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="650" s="4">
       <c r="A650" s="1" t="n">
@@ -20095,6 +22515,11 @@
       <c r="G650" s="5" t="n">
         <v>-9.870000000000001</v>
       </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="651" s="4">
       <c r="A651" s="1" t="n">
@@ -20124,6 +22549,11 @@
       <c r="G651" s="5" t="n">
         <v>-6.04</v>
       </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="652" s="4">
       <c r="A652" s="1" t="n">
@@ -20153,6 +22583,11 @@
       <c r="G652" s="5" t="n">
         <v>10.75</v>
       </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="653" s="4">
       <c r="A653" s="1" t="n">
@@ -20182,6 +22617,11 @@
       <c r="G653" s="5" t="n">
         <v>106.74</v>
       </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="654" s="4">
       <c r="A654" s="1" t="n">
@@ -20211,6 +22651,11 @@
       <c r="G654" s="5" t="n">
         <v>3.2</v>
       </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="655" s="4">
       <c r="A655" s="1" t="n">
@@ -20240,6 +22685,11 @@
       <c r="G655" s="5" t="n">
         <v>3.15</v>
       </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="656" s="4">
       <c r="A656" s="1" t="n">
@@ -20269,6 +22719,11 @@
       <c r="G656" s="5" t="n">
         <v>2.8</v>
       </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="657" s="4">
       <c r="A657" s="1" t="n">
@@ -20298,6 +22753,11 @@
       <c r="G657" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="658" s="4">
       <c r="A658" s="1" t="n">
@@ -20327,6 +22787,11 @@
       <c r="G658" s="5" t="n">
         <v>90</v>
       </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="659" s="4">
       <c r="A659" s="1" t="n">
@@ -20356,6 +22821,11 @@
       <c r="G659" s="5" t="n">
         <v>5.25</v>
       </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="660" s="4">
       <c r="A660" s="1" t="n">
@@ -20385,6 +22855,11 @@
       <c r="G660" s="5" t="n">
         <v>4.5</v>
       </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="661" s="4">
       <c r="A661" s="1" t="n">
@@ -20414,6 +22889,11 @@
       <c r="G661" s="5" t="n">
         <v>25.9</v>
       </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="662" s="4">
       <c r="A662" s="1" t="n">
@@ -20443,6 +22923,11 @@
       <c r="G662" s="5" t="n">
         <v>260</v>
       </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="663" s="4">
       <c r="A663" s="1" t="n">
@@ -20472,6 +22957,11 @@
       <c r="G663" s="5" t="n">
         <v>3.25</v>
       </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="664" s="4">
       <c r="A664" s="1" t="n">
@@ -20501,6 +22991,11 @@
       <c r="G664" s="5" t="n">
         <v>4.5</v>
       </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="665" s="4">
       <c r="A665" s="1" t="n">
@@ -20530,6 +23025,11 @@
       <c r="G665" s="5" t="n">
         <v>5.3</v>
       </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="666" s="4">
       <c r="A666" s="1" t="n">
@@ -20559,6 +23059,11 @@
       <c r="G666" s="5" t="n">
         <v>59.9</v>
       </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="667" s="4">
       <c r="A667" s="1" t="n">
@@ -20588,6 +23093,11 @@
       <c r="G667" s="5" t="n">
         <v>5</v>
       </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="668" s="4">
       <c r="A668" s="1" t="n">
@@ -20617,6 +23127,11 @@
       <c r="G668" s="5" t="n">
         <v>32</v>
       </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="669" s="4">
       <c r="A669" s="1" t="n">
@@ -20646,6 +23161,11 @@
       <c r="G669" s="5" t="n">
         <v>10.1</v>
       </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="670" s="4">
       <c r="A670" s="1" t="n">
@@ -20675,6 +23195,11 @@
       <c r="G670" s="5" t="n">
         <v>3.75</v>
       </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="671" s="4">
       <c r="A671" s="1" t="n">
@@ -20704,6 +23229,11 @@
       <c r="G671" s="5" t="n">
         <v>75</v>
       </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="672" s="4">
       <c r="A672" s="1" t="n">
@@ -20733,6 +23263,11 @@
       <c r="G672" s="5" t="n">
         <v>16.5</v>
       </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="673" s="4">
       <c r="A673" s="1" t="n">
@@ -20762,6 +23297,11 @@
       <c r="G673" s="5" t="n">
         <v>7</v>
       </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="674" s="4">
       <c r="A674" s="1" t="n">
@@ -20791,6 +23331,11 @@
       <c r="G674" s="5" t="n">
         <v>26.8</v>
       </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="675" s="4">
       <c r="A675" s="1" t="n">
@@ -20820,6 +23365,11 @@
       <c r="G675" s="5" t="n">
         <v>26.04</v>
       </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="676" s="4">
       <c r="A676" s="1" t="n">
@@ -20849,6 +23399,11 @@
       <c r="G676" s="5" t="n">
         <v>25.23</v>
       </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="677" s="4">
       <c r="A677" s="1" t="n">
@@ -20878,6 +23433,11 @@
       <c r="G677" s="5" t="n">
         <v>29.05</v>
       </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="678" s="4">
       <c r="A678" s="1" t="n">
@@ -20907,6 +23467,11 @@
       <c r="G678" s="5" t="n">
         <v>43.13</v>
       </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="679" s="4">
       <c r="A679" s="1" t="n">
@@ -20936,6 +23501,11 @@
       <c r="G679" s="5" t="n">
         <v>8.1</v>
       </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="680" s="4">
       <c r="A680" s="1" t="n">
@@ -20965,6 +23535,11 @@
       <c r="G680" s="5" t="n">
         <v>113.49</v>
       </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="681" s="4">
       <c r="A681" s="1" t="n">
@@ -20994,6 +23569,11 @@
       <c r="G681" s="5" t="n">
         <v>36.6</v>
       </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="682" s="4">
       <c r="A682" s="1" t="n">
@@ -21023,6 +23603,11 @@
       <c r="G682" s="5" t="n">
         <v>282.08</v>
       </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="683" s="4">
       <c r="A683" s="1" t="n">
@@ -21052,6 +23637,11 @@
       <c r="G683" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="684" s="4">
       <c r="A684" s="1" t="n">
@@ -21081,6 +23671,11 @@
       <c r="G684" s="5" t="n">
         <v>119</v>
       </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="685" s="4">
       <c r="A685" s="1" t="n">
@@ -21110,6 +23705,11 @@
       <c r="G685" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="686" s="4">
       <c r="A686" s="1" t="n">
@@ -21139,6 +23739,11 @@
       <c r="G686" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="687" s="4">
       <c r="A687" s="1" t="n">
@@ -21168,6 +23773,11 @@
       <c r="G687" s="5" t="n">
         <v>280.3</v>
       </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="688" s="4">
       <c r="A688" s="1" t="n">
@@ -21197,6 +23807,11 @@
       <c r="G688" s="5" t="n">
         <v>50</v>
       </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="689" s="4">
       <c r="A689" s="1" t="n">
@@ -21226,6 +23841,11 @@
       <c r="G689" s="5" t="n">
         <v>4.54</v>
       </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="690" s="4">
       <c r="A690" s="1" t="n">
@@ -21255,6 +23875,11 @@
       <c r="G690" s="5" t="n">
         <v>10.9</v>
       </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="691" s="4">
       <c r="A691" s="1" t="n">
@@ -21284,6 +23909,11 @@
       <c r="G691" s="5" t="n">
         <v>27.15</v>
       </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="692" s="4">
       <c r="A692" s="1" t="n">
@@ -21313,6 +23943,11 @@
       <c r="G692" s="5" t="n">
         <v>4.54</v>
       </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="693" s="4">
       <c r="A693" s="1" t="n">
@@ -21342,6 +23977,11 @@
       <c r="G693" s="5" t="n">
         <v>8</v>
       </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="694" s="4">
       <c r="A694" s="1" t="n">
@@ -21371,6 +24011,11 @@
       <c r="G694" s="5" t="n">
         <v>14.67</v>
       </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="695" s="4">
       <c r="A695" s="1" t="n">
@@ -21400,6 +24045,11 @@
       <c r="G695" s="5" t="n">
         <v>7.8</v>
       </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="696" s="4">
       <c r="A696" s="1" t="n">
@@ -21429,6 +24079,11 @@
       <c r="G696" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="697" s="4">
       <c r="A697" s="1" t="n">
@@ -21457,6 +24112,11 @@
       </c>
       <c r="G697" s="5" t="n">
         <v>6.7</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="698" s="4">
